--- a/spliced/walkingToRunning/2023-03-24_10-00-03/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-00-03/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-10.12347984313965</v>
+        <v>3.43527889251709</v>
       </c>
       <c r="D2" t="n">
-        <v>-12.30102252960205</v>
+        <v>-5.793748378753662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7924041748046875</v>
+        <v>33.75442886352539</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.480195186688346</v>
+        <v>1.886958264387571</v>
       </c>
       <c r="G2" t="n">
-        <v>1.294306601010827</v>
+        <v>-2.518787022737357</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5659719448823164</v>
+        <v>-1.387751776667747</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-10.5097599029541</v>
+        <v>3.264275550842285</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.70972919464111</v>
+        <v>-8.339526176452637</v>
       </c>
       <c r="E3" t="n">
-        <v>2.053862571716309</v>
+        <v>33.21075820922852</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.409887770506049</v>
+        <v>-1.408535764767576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5993649148023925</v>
+        <v>-0.4590572393857499</v>
       </c>
       <c r="H3" t="n">
-        <v>2.366707202104431</v>
+        <v>1.789505992944425</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-10.50637054443359</v>
+        <v>-2.304214000701904</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.368468284606934</v>
+        <v>-44.59181213378906</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09868168830871581</v>
+        <v>10.13076019287109</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.520585131645206</v>
+        <v>-9.029990652891366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6457366868853668</v>
+        <v>-0.2165457317462454</v>
       </c>
       <c r="H4" t="n">
-        <v>1.476682871580106</v>
+        <v>2.049246124120849</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-10.30328369140625</v>
+        <v>-2.632879257202148</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.873513221740723</v>
+        <v>-47.35254669189453</v>
       </c>
       <c r="E5" t="n">
-        <v>1.344472646713257</v>
+        <v>16.20354652404785</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4655308118806381</v>
+        <v>-1.633290004730144</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7755842392261201</v>
+        <v>0.8114918470382817</v>
       </c>
       <c r="H5" t="n">
-        <v>0.293587906715959</v>
+        <v>0.4343748807907029</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.79137802124023</v>
+        <v>-20.92312431335449</v>
       </c>
       <c r="D6" t="n">
-        <v>-21.5272388458252</v>
+        <v>-10.33131408691406</v>
       </c>
       <c r="E6" t="n">
-        <v>12.6630449295044</v>
+        <v>-20.38119125366211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7043877029361616</v>
+        <v>4.732972145080568</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.534969633359172</v>
+        <v>-2.583366572856895</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.114159101505689</v>
+        <v>-0.3213605839472549</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19.90750885009766</v>
+        <v>-20.04123497009277</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.83480453491211</v>
+        <v>-3.740296125411987</v>
       </c>
       <c r="E7" t="n">
-        <v>12.84930896759033</v>
+        <v>-22.7781810760498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3551079646899151</v>
+        <v>4.758649143805877</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8718718473727887</v>
+        <v>-1.287177375646699</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.791556031887348</v>
+        <v>0.682966625690469</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-11.76535415649414</v>
+        <v>-13.83809471130371</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.525378227233887</v>
+        <v>-1.457606315612793</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.198892593383789</v>
+        <v>10.62628936767578</v>
       </c>
       <c r="F8" t="n">
-        <v>1.14996324281854</v>
+        <v>1.202222677377485</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.9319896532939045</v>
+        <v>1.668132488544167</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.830249673357381</v>
+        <v>1.826421522177189</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.8818187713623</v>
+        <v>-15.24413108825684</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.1168212890625</v>
+        <v>-5.868594169616699</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.782471179962158</v>
+        <v>10.52801132202148</v>
       </c>
       <c r="F9" t="n">
-        <v>1.324556015088006</v>
+        <v>-3.896952409010684</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2640975006497781</v>
+        <v>0.7400126088123988</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7738726203258206</v>
+        <v>1.755212721457845</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-11.70742130279541</v>
+        <v>-68.24240875244141</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.451218605041504</v>
+        <v>-37.54502487182617</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.025445699691772</v>
+        <v>-25.38205528259277</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1911227932343139</v>
+        <v>-3.904241349146918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5675708614289749</v>
+        <v>8.71459445529258</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.251885476020665</v>
+        <v>1.42584520486685</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-11.47331142425537</v>
+        <v>-69.99400329589844</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.668012857437134</v>
+        <v>-36.24868774414063</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.327283382415771</v>
+        <v>-23.62584495544434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9762309147761512</v>
+        <v>-1.888838914724495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2426570039529025</v>
+        <v>4.313753348130421</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4792778418614232</v>
+        <v>0.935868626374464</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.293003082275391</v>
+        <v>3.574422836303711</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.035791397094727</v>
+        <v>-10.55799293518066</v>
       </c>
       <c r="E12" t="n">
-        <v>4.699301242828369</v>
+        <v>-1.943589687347412</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1150751508199515</v>
+        <v>4.815394823367857</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7187196004849308</v>
+        <v>-4.399581175584057</v>
       </c>
       <c r="H12" t="n">
-        <v>1.227488873096629</v>
+        <v>-2.032744779036629</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.521552085876465</v>
+        <v>1.990053176879883</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.169154644012451</v>
+        <v>-4.801568031311035</v>
       </c>
       <c r="E13" t="n">
-        <v>4.261832237243652</v>
+        <v>-0.5777735710144043</v>
       </c>
       <c r="F13" t="n">
-        <v>0.849087557425878</v>
+        <v>5.744059562683067</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.957310779278101</v>
+        <v>-2.208836053426431</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.615636436755862</v>
+        <v>-2.385511210331534</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.43527889251709</v>
+        <v>15.68469429016113</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.793748378753662</v>
+        <v>14.39326095581055</v>
       </c>
       <c r="E14" t="n">
-        <v>33.75442886352539</v>
+        <v>3.627434253692627</v>
       </c>
       <c r="F14" t="n">
-        <v>1.886958264387571</v>
+        <v>-0.9773453107246968</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.518787022737357</v>
+        <v>-5.042484849920636</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.387751776667747</v>
+        <v>-1.550856040532772</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.264275550842285</v>
+        <v>15.73915863037109</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.339526176452637</v>
+        <v>7.167607307434082</v>
       </c>
       <c r="E15" t="n">
-        <v>33.21075820922852</v>
+        <v>5.527215480804443</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.408535764767576</v>
+        <v>-5.169222395236689</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4590572393857499</v>
+        <v>-6.381682007129349</v>
       </c>
       <c r="H15" t="n">
-        <v>1.789505992944425</v>
+        <v>-6.139806142220171</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.304214000701904</v>
+        <v>-0.1553750038146972</v>
       </c>
       <c r="D16" t="n">
-        <v>-44.59181213378906</v>
+        <v>10.89957809448242</v>
       </c>
       <c r="E16" t="n">
-        <v>10.13076019287109</v>
+        <v>-15.06903266906738</v>
       </c>
       <c r="F16" t="n">
-        <v>-9.029990652891366</v>
+        <v>-4.023792711588003</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2165457317462454</v>
+        <v>7.085793306277576</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049246124120849</v>
+        <v>-4.32150216927884</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.632879257202148</v>
+        <v>-0.4681458473205566</v>
       </c>
       <c r="D17" t="n">
-        <v>-47.35254669189453</v>
+        <v>11.8446626663208</v>
       </c>
       <c r="E17" t="n">
-        <v>16.20354652404785</v>
+        <v>-15.58957099914551</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.633290004730144</v>
+        <v>1.662728214263952</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8114918470382817</v>
+        <v>4.684056318723108</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4343748807907029</v>
+        <v>-1.641669896932774</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-20.92312431335449</v>
+        <v>9.029394149780272</v>
       </c>
       <c r="D18" t="n">
-        <v>-10.33131408691406</v>
+        <v>-76.68982696533203</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.38119125366211</v>
+        <v>2.083036422729492</v>
       </c>
       <c r="F18" t="n">
-        <v>4.732972145080568</v>
+        <v>2.464888723567128</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.583366572856895</v>
+        <v>-12.57504773139953</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3213605839472549</v>
+        <v>-3.376289129257202</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-20.04123497009277</v>
+        <v>9.611247062683104</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.740296125411987</v>
+        <v>-76.88915252685547</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.7781810760498</v>
+        <v>1.387777328491211</v>
       </c>
       <c r="F19" t="n">
-        <v>4.758649143805877</v>
+        <v>-0.0004609318306818891</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.287177375646699</v>
+        <v>-8.720019648625392</v>
       </c>
       <c r="H19" t="n">
-        <v>0.682966625690469</v>
+        <v>-0.9112097813533104</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-13.83809471130371</v>
+        <v>-11.94809913635254</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.457606315612793</v>
+        <v>10.77702140808106</v>
       </c>
       <c r="E20" t="n">
-        <v>10.62628936767578</v>
+        <v>4.135905742645264</v>
       </c>
       <c r="F20" t="n">
-        <v>1.202222677377485</v>
+        <v>-6.561141893869462</v>
       </c>
       <c r="G20" t="n">
-        <v>1.668132488544167</v>
+        <v>1.067614199106516</v>
       </c>
       <c r="H20" t="n">
-        <v>1.826421522177189</v>
+        <v>5.132379430073989</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-15.24413108825684</v>
+        <v>-66.71106719970703</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.868594169616699</v>
+        <v>-81.49526214599609</v>
       </c>
       <c r="E21" t="n">
-        <v>10.52801132202148</v>
+        <v>59.02106475830078</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.896952409010684</v>
+        <v>-3.78096956106336</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7400126088123988</v>
+        <v>-6.149249487656785</v>
       </c>
       <c r="H21" t="n">
-        <v>1.755212721457845</v>
+        <v>3.56855486356297</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-43.36343383789063</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-8.654863357543945</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-11.20723152160644</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.143512133451609</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-9.295757961273193</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.042706482227031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-40.74956512451172</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.842054843902588</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.99789905548096</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.805606016746037</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.494310085590225</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.446077621900006</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.164802551269531</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.02423906326294</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-4.845988273620605</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.119575682053099</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.113574073864802</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2212830832371099</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.398514747619629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.322819232940674</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.664791107177734</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.658262938719541</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.234168899976305</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.193659129509576</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-79.12488555908203</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-28.08302688598633</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-31.37481689453125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.523965861247135</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.674394070185159</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.710836189526775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-81.6524658203125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-26.21007919311523</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-27.36414909362793</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.4347282877335233</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.832854989858879</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.6348883940623381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.369277954101562</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-24.22552871704102</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-6.347414493560791</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.215493936378243</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-6.333109965691214</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3.700846394667294</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.832977294921875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-17.93884468078613</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-7.180578708648682</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.503521535946755</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4.84552946755515</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-5.782033076653083</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.03362846374512</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.78299713134766</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.19299840927124</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5721309762734461</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.04020348672683609</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.7832388446880931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.60475063323975</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.68077850341797</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.681206226348877</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.998460626602359</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-7.086485686898527</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6293182730674433</v>
       </c>
     </row>
   </sheetData>
